--- a/data_for_regression/df_treat_clean.xlsx
+++ b/data_for_regression/df_treat_clean.xlsx
@@ -6371,7 +6371,7 @@
         <v>1900</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -22256,7 +22256,7 @@
         <v>1600</v>
       </c>
       <c r="F485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G485" t="n">
         <v>0</v>
@@ -23651,7 +23651,7 @@
         <v>1900</v>
       </c>
       <c r="F516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G516" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>2200</v>
       </c>
       <c r="F520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G520" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>1700</v>
       </c>
       <c r="F524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G524" t="n">
         <v>0</v>
@@ -24416,7 +24416,7 @@
         <v>2300</v>
       </c>
       <c r="F533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G533" t="n">
         <v>0</v>
@@ -27251,7 +27251,7 @@
         <v>1400</v>
       </c>
       <c r="F596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G596" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>3800</v>
       </c>
       <c r="F601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G601" t="n">
         <v>0</v>
@@ -28106,7 +28106,7 @@
         <v>1600</v>
       </c>
       <c r="F615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G615" t="n">
         <v>0</v>
@@ -28331,7 +28331,7 @@
         <v>1500</v>
       </c>
       <c r="F620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G620" t="n">
         <v>0</v>
@@ -31796,7 +31796,7 @@
         <v>1500</v>
       </c>
       <c r="F697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G697" t="n">
         <v>0</v>
@@ -31976,7 +31976,7 @@
         <v>1500</v>
       </c>
       <c r="F701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G701" t="n">
         <v>0</v>
@@ -32066,7 +32066,7 @@
         <v>1500</v>
       </c>
       <c r="F703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G703" t="n">
         <v>0</v>
@@ -32111,7 +32111,7 @@
         <v>1500</v>
       </c>
       <c r="F704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G704" t="n">
         <v>0</v>
@@ -40526,7 +40526,7 @@
         <v>700</v>
       </c>
       <c r="F891" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G891" t="n">
         <v>0</v>
